--- a/Experiments/Measurements/Two Banners Side by Side/S path/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Side by Side/S path/Transformed_Coordinates.xlsx
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>110.9125448571862</v>
+        <v>110.9125448571859</v>
       </c>
       <c r="H53" t="n">
-        <v>38.38457171560948</v>
+        <v>38.38457171560938</v>
       </c>
     </row>
     <row r="54">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>192.7628761537609</v>
+        <v>192.7628761537613</v>
       </c>
       <c r="H54" t="n">
-        <v>35.63252422174465</v>
+        <v>35.63252422174486</v>
       </c>
     </row>
     <row r="55">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>203.5529686815123</v>
+        <v>203.5529686815125</v>
       </c>
       <c r="H55" t="n">
-        <v>33.39933877875269</v>
+        <v>33.39933877875281</v>
       </c>
     </row>
     <row r="56">
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>234.8494452198128</v>
+        <v>234.8494452198126</v>
       </c>
       <c r="H59" t="n">
-        <v>29.05295131651976</v>
+        <v>29.05295131651965</v>
       </c>
     </row>
     <row r="60">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>212.3075029729254</v>
+        <v>212.3075029729258</v>
       </c>
       <c r="H60" t="n">
-        <v>30.41936624013206</v>
+        <v>30.41936624013228</v>
       </c>
     </row>
     <row r="61">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>194.2502896610837</v>
+        <v>194.2502896610839</v>
       </c>
       <c r="H61" t="n">
-        <v>31.34784141690364</v>
+        <v>31.34784141690375</v>
       </c>
     </row>
     <row r="62">
@@ -2295,10 +2295,10 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>214.7146682947751</v>
+        <v>214.7146682947753</v>
       </c>
       <c r="H62" t="n">
-        <v>52.92992924274002</v>
+        <v>52.92992924274016</v>
       </c>
     </row>
     <row r="63">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>79.57596219850113</v>
+        <v>79.57596219850093</v>
       </c>
       <c r="H65" t="n">
-        <v>35.50123398614029</v>
+        <v>35.50123398614019</v>
       </c>
     </row>
     <row r="66">
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>220.5407558914079</v>
+        <v>220.5407558914083</v>
       </c>
       <c r="H66" t="n">
-        <v>39.39681320437737</v>
+        <v>39.39681320437762</v>
       </c>
     </row>
     <row r="67">
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>224.5096216414698</v>
+        <v>224.50962164147</v>
       </c>
       <c r="H67" t="n">
-        <v>51.96239569726288</v>
+        <v>51.96239569726302</v>
       </c>
     </row>
     <row r="68">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>18.94228424240402</v>
+        <v>18.94228424240421</v>
       </c>
       <c r="H68" t="n">
-        <v>43.90729937482099</v>
+        <v>43.90729937482112</v>
       </c>
     </row>
     <row r="69">
@@ -2565,10 +2565,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>113.9482871733472</v>
+        <v>113.948287173347</v>
       </c>
       <c r="H71" t="n">
-        <v>49.70654282872405</v>
+        <v>49.70654282872396</v>
       </c>
     </row>
     <row r="72">
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>241.958491967683</v>
+        <v>241.9584919676834</v>
       </c>
       <c r="H72" t="n">
-        <v>49.50131700997575</v>
+        <v>49.50131700997602</v>
       </c>
     </row>
     <row r="73">
@@ -2625,10 +2625,10 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>220.5470731124926</v>
+        <v>220.5470731124928</v>
       </c>
       <c r="H73" t="n">
-        <v>54.24246397813684</v>
+        <v>54.24246397813698</v>
       </c>
     </row>
     <row r="74">
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>31.26738520094145</v>
+        <v>31.26738520094127</v>
       </c>
       <c r="H75" t="n">
-        <v>54.20708176734983</v>
+        <v>54.20708176734969</v>
       </c>
     </row>
     <row r="76">
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>126.4756797373783</v>
+        <v>126.4756797373787</v>
       </c>
       <c r="H76" t="n">
-        <v>48.7378968850218</v>
+        <v>48.73789688502199</v>
       </c>
     </row>
     <row r="77">
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>64.99555155862839</v>
+        <v>64.99555155862818</v>
       </c>
       <c r="H78" t="n">
-        <v>36.650441150574</v>
+        <v>36.6504411505739</v>
       </c>
     </row>
     <row r="79">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>213.602518056681</v>
+        <v>213.6025180566807</v>
       </c>
       <c r="H79" t="n">
-        <v>30.09451728471221</v>
+        <v>30.09451728471204</v>
       </c>
     </row>
     <row r="80">
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>218.1676293818226</v>
+        <v>218.1676293818228</v>
       </c>
       <c r="H81" t="n">
-        <v>29.8829391224382</v>
+        <v>29.88293912243832</v>
       </c>
     </row>
     <row r="82">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>56.55257040261835</v>
+        <v>56.55257040261817</v>
       </c>
       <c r="H82" t="n">
-        <v>62.5998384124015</v>
+        <v>62.59983841240137</v>
       </c>
     </row>
     <row r="83">
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>169.3786414673145</v>
+        <v>169.3786414673143</v>
       </c>
       <c r="H83" t="n">
-        <v>46.37519746443291</v>
+        <v>46.3751974644328</v>
       </c>
     </row>
     <row r="84">
@@ -2955,10 +2955,10 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>87.44161901937552</v>
+        <v>87.44161901937572</v>
       </c>
       <c r="H84" t="n">
-        <v>34.95806236701413</v>
+        <v>34.95806236701423</v>
       </c>
     </row>
     <row r="85">
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>84.20437191510517</v>
+        <v>84.20437191510558</v>
       </c>
       <c r="H85" t="n">
-        <v>35.27452178006287</v>
+        <v>35.27452178006308</v>
       </c>
     </row>
     <row r="86">
@@ -3045,10 +3045,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>99.03155604499452</v>
+        <v>99.0315560449943</v>
       </c>
       <c r="H87" t="n">
-        <v>38.05897639505074</v>
+        <v>38.05897639505065</v>
       </c>
     </row>
     <row r="88">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>232.3330077636406</v>
+        <v>232.3330077636404</v>
       </c>
       <c r="H88" t="n">
-        <v>29.10982790881667</v>
+        <v>29.10982790881656</v>
       </c>
     </row>
     <row r="89">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>232.8965725675372</v>
+        <v>232.8965725675374</v>
       </c>
       <c r="H89" t="n">
-        <v>55.96712961051403</v>
+        <v>55.96712961051416</v>
       </c>
     </row>
     <row r="90">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>141.335244689909</v>
+        <v>141.3352446899088</v>
       </c>
       <c r="H90" t="n">
-        <v>46.58406889007105</v>
+        <v>46.58406889007097</v>
       </c>
     </row>
     <row r="91">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>28.22442774392274</v>
+        <v>28.22442774392315</v>
       </c>
       <c r="H91" t="n">
-        <v>48.51007442233148</v>
+        <v>48.51007442233167</v>
       </c>
     </row>
     <row r="92">
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>76.51566476913843</v>
+        <v>76.51566476913884</v>
       </c>
       <c r="H92" t="n">
-        <v>48.52443019134111</v>
+        <v>48.52443019134131</v>
       </c>
     </row>
     <row r="93">
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>49.76527078261075</v>
+        <v>49.76527078261095</v>
       </c>
       <c r="H93" t="n">
-        <v>45.55634737079257</v>
+        <v>45.55634737079268</v>
       </c>
     </row>
     <row r="94">
@@ -3255,10 +3255,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>61.5246934549557</v>
+        <v>61.52469345495542</v>
       </c>
       <c r="H94" t="n">
-        <v>59.36598744528309</v>
+        <v>59.3659874452829</v>
       </c>
     </row>
     <row r="95">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>65.00882955226754</v>
+        <v>65.00882955226795</v>
       </c>
       <c r="H95" t="n">
-        <v>42.20557718923973</v>
+        <v>42.20557718923994</v>
       </c>
     </row>
     <row r="96">
@@ -3345,10 +3345,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>81.19943883743171</v>
+        <v>81.19943883743152</v>
       </c>
       <c r="H97" t="n">
-        <v>62.98047623036442</v>
+        <v>62.98047623036432</v>
       </c>
     </row>
     <row r="98">
@@ -3375,10 +3375,10 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>71.31136083215129</v>
+        <v>71.3113608321511</v>
       </c>
       <c r="H98" t="n">
-        <v>44.91272264280468</v>
+        <v>44.91272264280457</v>
       </c>
     </row>
     <row r="99">
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>80.15077213628015</v>
+        <v>80.15077213628057</v>
       </c>
       <c r="H99" t="n">
-        <v>42.88082611400449</v>
+        <v>42.88082611400471</v>
       </c>
     </row>
     <row r="100">
@@ -3465,10 +3465,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>78.38791486118214</v>
+        <v>78.38791486118234</v>
       </c>
       <c r="H101" t="n">
-        <v>43.72377526221297</v>
+        <v>43.72377526221307</v>
       </c>
     </row>
   </sheetData>
